--- a/VulnerabilityMapping/Securify2.xlsx
+++ b/VulnerabilityMapping/Securify2.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24701"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D86F8381-D0A6-482C-88FF-2AF81F42CF9A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D46431C-CDDD-47F8-A229-DDAFD8037B59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11,11 +11,20 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="90">
   <si>
     <t>Original Vulnerability</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -153,9 +162,6 @@
     <t>shadowing-state</t>
   </si>
   <si>
-    <t>money_concurrency</t>
-  </si>
-  <si>
     <t>Uninitialized State Variable</t>
   </si>
   <si>
@@ -166,9 +172,6 @@
   </si>
   <si>
     <t>Unrestricted write to storage</t>
-  </si>
-  <si>
-    <t>Taint Analysis for PASS Project</t>
   </si>
   <si>
     <t>Possibly unsafe usage of tx-origin</t>
@@ -276,6 +279,34 @@
   </si>
   <si>
     <t>Repeated Call to Untrusted Contract</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>money-concurrency</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TOD-receiver</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TOD-ether</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>taint-pass-project</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>missing-input-validation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>state-default-visibility</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Taint Analysis for PASS Project</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -688,8 +719,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -792,7 +823,7 @@
         <v>7</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>44</v>
+        <v>83</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>5</v>
@@ -806,7 +837,7 @@
         <v>8</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>8</v>
+        <v>84</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>5</v>
@@ -820,7 +851,7 @@
         <v>9</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>9</v>
+        <v>85</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>5</v>
@@ -831,7 +862,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>10</v>
@@ -845,10 +876,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>46</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>47</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>5</v>
@@ -859,10 +890,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>49</v>
+        <v>89</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>49</v>
+        <v>86</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>5</v>
@@ -873,10 +904,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>12</v>
@@ -887,7 +918,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>11</v>
@@ -901,7 +932,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>13</v>
@@ -929,7 +960,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>16</v>
@@ -957,10 +988,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>12</v>
@@ -971,7 +1002,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>19</v>
@@ -985,7 +1016,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>20</v>
@@ -999,7 +1030,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>21</v>
@@ -1016,7 +1047,7 @@
         <v>22</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>12</v>
@@ -1027,10 +1058,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>12</v>
@@ -1041,10 +1072,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>23</v>
@@ -1055,7 +1086,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>24</v>
@@ -1069,7 +1100,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>25</v>
@@ -1083,7 +1114,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>26</v>
@@ -1097,10 +1128,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>23</v>
@@ -1111,7 +1142,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>27</v>
@@ -1125,10 +1156,10 @@
         <v>30</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D31" s="3" t="s">
         <v>23</v>
@@ -1139,10 +1170,10 @@
         <v>31</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>28</v>
@@ -1153,7 +1184,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>29</v>
@@ -1167,7 +1198,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>30</v>
@@ -1181,7 +1212,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>31</v>
@@ -1195,7 +1226,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>32</v>
@@ -1209,7 +1240,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>33</v>
@@ -1223,10 +1254,10 @@
         <v>37</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="D38" s="3" t="s">
         <v>28</v>
@@ -1237,10 +1268,10 @@
         <v>38</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D39" s="3" t="s">
         <v>28</v>
@@ -1251,10 +1282,10 @@
         <v>39</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D40" s="3" t="s">
         <v>34</v>
@@ -1265,7 +1296,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>35</v>
@@ -1279,7 +1310,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>36</v>
